--- a/wwwroot/files/summary_sale_turnover.xlsx
+++ b/wwwroot/files/summary_sale_turnover.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kriangkrai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOME\WEB\WebENG\WebENG\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Month</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Invoice</t>
+  </si>
+  <si>
+    <t>Acc Invoice</t>
   </si>
 </sst>
 </file>
@@ -245,15 +248,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,6 +273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +451,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -589,7 +591,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -672,11 +673,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="368796760"/>
-        <c:axId val="370916888"/>
+        <c:axId val="322096272"/>
+        <c:axId val="321994128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="368796760"/>
+        <c:axId val="322096272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370916888"/>
+        <c:crossAx val="321994128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370916888"/>
+        <c:axId val="321994128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +779,578 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368796760"/>
+        <c:crossAx val="322096272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ACCUMULATE SALE TURNOVER OF JOB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$D$20:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$20:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$D$20:$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$F$20:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="321982520"/>
+        <c:axId val="321703072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="321982520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321703072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="321703072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321982520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,14 +1979,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1431,6 +2003,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1702,120 +2306,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F16"/>
+  <dimension ref="D2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
